--- a/0_1_Output_Data/5_ifoCAST_error_series_GVA_last_rep_since_2022/ifoCAst_errors_last_rep_first_since_2022_GVA.xlsx
+++ b/0_1_Output_Data/5_ifoCAST_error_series_GVA_last_rep_since_2022/ifoCAst_errors_last_rep_first_since_2022_GVA.xlsx
@@ -546,6 +546,9 @@
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B16">
+        <v>0.2651053283564908</v>
+      </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
